--- a/ESP32_ポート.xlsx
+++ b/ESP32_ポート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinya\Documents\_git\Arduino_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0501F38A-8B31-4CE0-9F7B-AEAB360FB316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D7CCC-7C17-4FA4-ADBB-FE64A0ACB64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="16080" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2DE5F766-6E91-4507-86F2-B6C0F7B8B650}"/>
+    <workbookView xWindow="6690" yWindow="0" windowWidth="21600" windowHeight="12480" activeTab="1" xr2:uid="{2DE5F766-6E91-4507-86F2-B6C0F7B8B650}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2129,7 +2129,7 @@
   <dimension ref="H4:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
